--- a/EL_Electrical/Gearshift/Suivi_Gearshift Controller.xlsx
+++ b/EL_Electrical/Gearshift/Suivi_Gearshift Controller.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6D0502-49CF-47A5-B86B-85553121CC6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1077C01-EE28-4F8B-A7D6-8850C7700839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="9390" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Généralités" sheetId="8" r:id="rId1"/>
@@ -138,10 +138,10 @@
     <t>Bruno Moreira Nabinger</t>
   </si>
   <si>
-    <t>Envoyer les commandes pour passer les vitesse selon les commandes des palettes</t>
+    <t>à définir</t>
   </si>
   <si>
-    <t>à définir</t>
+    <t>Envoyer les commandes pour passer les vitesses selon les commandes des palettes</t>
   </si>
 </sst>
 </file>
@@ -584,6 +584,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -596,15 +603,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -612,30 +621,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -652,30 +676,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1620,8 +1620,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:F21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,65 +1633,65 @@
       <c r="A1" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="52" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51" t="s">
-        <v>35</v>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54" t="s">
+        <v>36</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
@@ -1703,174 +1703,158 @@
       <c r="H13" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="54" t="s">
-        <v>36</v>
+      <c r="B20" s="50"/>
+      <c r="C20" s="48" t="s">
+        <v>35</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="48"/>
+      <c r="B33" s="51"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="F34" s="54" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="F34" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="F35" s="54" t="s">
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="F35" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="F36" s="54" t="s">
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="F36" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="F37" s="54" t="s">
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="F37" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
@@ -1887,6 +1871,22 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:H28"/>
     <mergeCell ref="C16:H16"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1927,8 +1927,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
@@ -1936,8 +1936,8 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="19"/>
@@ -1950,9 +1950,9 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
       <c r="F4" s="17"/>
@@ -1963,8 +1963,8 @@
       <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
@@ -1976,12 +1976,12 @@
       <c r="N5" s="25"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="H6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="25"/>
@@ -1989,32 +1989,32 @@
       <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
       <c r="H7" s="6"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
       <c r="H8" s="6"/>
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:16" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2028,9 +2028,9 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
       <c r="E12" s="6"/>
       <c r="G12" s="3"/>
       <c r="H12" s="6"/>
@@ -2041,55 +2041,55 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
     </row>
     <row r="18" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2097,58 +2097,58 @@
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2156,28 +2156,28 @@
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2195,44 +2195,44 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
     </row>
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
@@ -2260,11 +2260,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:F9"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A30:F32"/>
     <mergeCell ref="A36:F40"/>
@@ -2272,6 +2267,11 @@
     <mergeCell ref="A14:F18"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A22:F27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:F9"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.38825757575757575" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2307,19 +2307,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9"/>
       <c r="N2" s="10"/>
@@ -2330,10 +2330,10 @@
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="45" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2351,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="43"/>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -2360,8 +2360,8 @@
       <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="30"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -2369,8 +2369,8 @@
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="23"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -2378,8 +2378,8 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="23"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -2387,8 +2387,8 @@
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="26"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -2396,8 +2396,8 @@
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="23"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -2405,8 +2405,8 @@
       <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="23"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -2414,8 +2414,8 @@
       <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="26"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -2423,8 +2423,8 @@
       <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="26"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -2432,8 +2432,8 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
@@ -2441,8 +2441,8 @@
       <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="26"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -2450,8 +2450,8 @@
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="23"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -2459,8 +2459,8 @@
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="23"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -2468,8 +2468,8 @@
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="23"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -2478,8 +2478,8 @@
       <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="23"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -2488,8 +2488,8 @@
       <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="23"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -2498,8 +2498,8 @@
       <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="23"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
@@ -2508,8 +2508,8 @@
       <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="23"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -2534,11 +2534,11 @@
       <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="33"/>
       <c r="H26" s="28"/>
     </row>
@@ -2546,27 +2546,27 @@
       <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="77" t="s">
+      <c r="B28" s="69"/>
+      <c r="C28" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="78"/>
-      <c r="E28" s="77" t="s">
+      <c r="D28" s="65"/>
+      <c r="E28" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="78"/>
+      <c r="F28" s="65"/>
       <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2624,8 +2624,8 @@
       <c r="H35" s="28"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="74"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="61"/>
       <c r="D36" s="61"/>
       <c r="E36" s="61"/>
@@ -2633,8 +2633,8 @@
       <c r="H36" s="28"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="74"/>
-      <c r="B37" s="74"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="61"/>
       <c r="D37" s="61"/>
       <c r="E37" s="61"/>
@@ -2642,8 +2642,8 @@
       <c r="H37" s="28"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
-      <c r="B38" s="74"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
@@ -2720,6 +2720,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="A26:C26"/>
@@ -2736,55 +2785,6 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3761,36 +3761,34 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A48:B48"/>
@@ -3807,34 +3805,36 @@
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/EL_Electrical/Gearshift/Suivi_Gearshift Controller.xlsx
+++ b/EL_Electrical/Gearshift/Suivi_Gearshift Controller.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1077C01-EE28-4F8B-A7D6-8850C7700839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="742" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Généralités" sheetId="8" r:id="rId1"/>
@@ -14,12 +13,12 @@
     <sheet name="Composants" sheetId="11" r:id="rId4"/>
     <sheet name="Docs utile" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <r>
       <t>Identification de la carte :</t>
@@ -138,17 +137,173 @@
     <t>Bruno Moreira Nabinger</t>
   </si>
   <si>
-    <t>à définir</t>
-  </si>
-  <si>
     <t>Envoyer les commandes pour passer les vitesses selon les commandes des palettes</t>
+  </si>
+  <si>
+    <t>Au niveau de la parefeu arrière</t>
+  </si>
+  <si>
+    <t>Teensy 3.2</t>
+  </si>
+  <si>
+    <t>Circuit imprimé avec des composants cms et le microcontroleur intégré dessus</t>
+  </si>
+  <si>
+    <t>La carte arrière gère le passage de vitesse de la voiture. Elle reçoit depuis le CAN les ordres de passages au neutre et la remise à zéro du motoréducteur et des palettes les ordres de changement de vitesse. Le changement de vitesse est controlé par un motoréducteur commandé en position par un code binaire géré par la carte arrière. La carte transmet aussi les informations concernant le DTA et le tableau de bord</t>
+  </si>
+  <si>
+    <t>OUT1_12V</t>
+  </si>
+  <si>
+    <t>OUT2_12V</t>
+  </si>
+  <si>
+    <t>OUT3_12V</t>
+  </si>
+  <si>
+    <t>OUT4_12V</t>
+  </si>
+  <si>
+    <t>IN1_12V</t>
+  </si>
+  <si>
+    <t>IN0_12V</t>
+  </si>
+  <si>
+    <t>SHIFT_CUT_5V</t>
+  </si>
+  <si>
+    <t>GEAR_POT_5V</t>
+  </si>
+  <si>
+    <t>LOG_5V</t>
+  </si>
+  <si>
+    <t>TRACTION_CONTROL</t>
+  </si>
+  <si>
+    <t>LAUNCH_CONTROL</t>
+  </si>
+  <si>
+    <t>WET/DRY</t>
+  </si>
+  <si>
+    <t>PALETTE_GAUCHE</t>
+  </si>
+  <si>
+    <t>PALETTE_DROIT</t>
+  </si>
+  <si>
+    <t>Digital Ouput</t>
+  </si>
+  <si>
+    <t>Digital Input</t>
+  </si>
+  <si>
+    <t>Analog OUTPUT</t>
+  </si>
+  <si>
+    <t>Digital Output</t>
+  </si>
+  <si>
+    <t>Ground/High Impedance Output</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Con externe:Motoréducteur IN1</t>
+  </si>
+  <si>
+    <t>Con externe:Motoréducteur IN2</t>
+  </si>
+  <si>
+    <t>Con externe:Motoréducteur IN3</t>
+  </si>
+  <si>
+    <t>Con externe: Motoréducteur IN4</t>
+  </si>
+  <si>
+    <t>Con externe: Motoréducteur OUT1</t>
+  </si>
+  <si>
+    <t>Con externe: Motoréducteur OUT0</t>
+  </si>
+  <si>
+    <t>Con externe: DTA</t>
+  </si>
+  <si>
+    <t>Con externe: Palette gauche</t>
+  </si>
+  <si>
+    <t>Con externe: Palette droite</t>
+  </si>
+  <si>
+    <t>SENSOR_NEUTRE</t>
+  </si>
+  <si>
+    <t>PALETTE_DROITE</t>
+  </si>
+  <si>
+    <t>CAN-TX_Hardware</t>
+  </si>
+  <si>
+    <t>CAN-RX_Hardware</t>
+  </si>
+  <si>
+    <t>BUS CAN</t>
+  </si>
+  <si>
+    <t>IN0_3,3V</t>
+  </si>
+  <si>
+    <t>IN1_3,3V</t>
+  </si>
+  <si>
+    <t>WET/DRY_3,3V</t>
+  </si>
+  <si>
+    <t>LAUNCH_CONTROL_3,3V</t>
+  </si>
+  <si>
+    <t>TRACTION_CONTROL_3,3V</t>
+  </si>
+  <si>
+    <t>LOG_3,3V</t>
+  </si>
+  <si>
+    <t>SHIFT_CUT_3,3V</t>
+  </si>
+  <si>
+    <t>OUT4_3,3V</t>
+  </si>
+  <si>
+    <t>OUT3_3,3V</t>
+  </si>
+  <si>
+    <t>OUT2_3,3V</t>
+  </si>
+  <si>
+    <t>OUT1_3,3V</t>
+  </si>
+  <si>
+    <t>GEAR_POT</t>
+  </si>
+  <si>
+    <t>Analog Output</t>
+  </si>
+  <si>
+    <t>A14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]General"/>
+  </numFmts>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,20 +422,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -291,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -393,17 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -470,12 +612,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -522,23 +721,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -569,126 +756,145 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -781,7 +987,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91CF59D6-7643-48F1-9CE0-9F4094EA5781}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91CF59D6-7643-48F1-9CE0-9F4094EA5781}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -795,7 +1001,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
@@ -847,7 +1055,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAA4BE7-D97B-4002-A238-954BD0BCACC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CAA4BE7-D97B-4002-A238-954BD0BCACC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -861,7 +1069,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
@@ -913,7 +1123,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87EA9B2B-AE46-40CF-8E98-D77E47E45061}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87EA9B2B-AE46-40CF-8E98-D77E47E45061}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -927,7 +1137,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
@@ -979,7 +1191,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38013F2D-A221-4D0D-99E4-EBE76BB06D40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38013F2D-A221-4D0D-99E4-EBE76BB06D40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -993,7 +1205,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
@@ -1045,7 +1259,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ECF62F8-D56F-45EF-AEC6-B04F2E1B33A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ECF62F8-D56F-45EF-AEC6-B04F2E1B33A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1111,7 +1325,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F04B981-A14D-4442-982B-C915CAD2A250}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F04B981-A14D-4442-982B-C915CAD2A250}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1177,7 +1391,7 @@
         <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118586FF-7362-4E12-9EE2-1F6DB5D14E19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{118586FF-7362-4E12-9EE2-1F6DB5D14E19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1405,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
@@ -1243,7 +1459,7 @@
         <xdr:cNvPr id="9" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4349179F-DF46-4A41-B6FC-BAE8DDF8E4C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4349179F-DF46-4A41-B6FC-BAE8DDF8E4C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,23 +1586,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1422,23 +1621,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1614,86 +1796,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA1B5D7-BA08-4437-923D-B0073D2D88D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A12" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="15"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:8" ht="21">
+      <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="49" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="48"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="14"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1702,159 +1884,181 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="A16" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="48"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+    <row r="20" spans="1:8" ht="15" customHeight="1">
+      <c r="A20" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1">
+      <c r="A23" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="50">
+        <v>20</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
+      <c r="A27" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="46"/>
+      <c r="C27" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="51"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="49" t="s">
+      <c r="B33" s="46"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="F34" s="48" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="F34" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="48" t="s">
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="F35" s="48" t="s">
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="F35" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="48" t="s">
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="F36" s="48" t="s">
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="F36" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="48" t="s">
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="F37" s="48" t="s">
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="F37" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
@@ -1871,22 +2075,6 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:H28"/>
     <mergeCell ref="C16:H16"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1900,33 +2088,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A2:P46"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScale="80" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="4.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="12.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="4.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.6" customHeight="1">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
       <c r="C2" s="17"/>
@@ -1935,7 +2123,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.6">
       <c r="A3" s="56"/>
       <c r="B3" s="56"/>
       <c r="C3" s="17"/>
@@ -1949,7 +2137,7 @@
       <c r="N3" s="25"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.6" customHeight="1">
       <c r="A4" s="58"/>
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
@@ -1962,7 +2150,7 @@
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
     </row>
-    <row r="5" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.6" customHeight="1">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="17"/>
@@ -1975,8 +2163,10 @@
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+    <row r="6" spans="1:16">
+      <c r="A6" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="B6" s="57"/>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
@@ -1988,7 +2178,7 @@
       <c r="M6" s="25"/>
       <c r="N6" s="25"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="57"/>
       <c r="B7" s="57"/>
       <c r="C7" s="57"/>
@@ -1998,7 +2188,7 @@
       <c r="H7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="57"/>
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
@@ -2008,7 +2198,7 @@
       <c r="H8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="81.75" customHeight="1">
       <c r="A9" s="57"/>
       <c r="B9" s="57"/>
       <c r="C9" s="57"/>
@@ -2017,249 +2207,254 @@
       <c r="F9" s="57"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="B10" s="6"/>
       <c r="E10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="6"/>
       <c r="E11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
+    <row r="12" spans="1:16">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
       <c r="E12" s="6"/>
       <c r="G12" s="3"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="B13" s="6"/>
       <c r="E13" s="6"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
+    <row r="14" spans="1:16" ht="15" customHeight="1">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+    <row r="15" spans="1:16">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-    </row>
-    <row r="18" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+    </row>
+    <row r="18" spans="1:8" ht="44.25" customHeight="1">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="B19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.8">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+    <row r="30" spans="1:8" ht="15" customHeight="1">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.8">
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1">
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="B33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="20"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="B35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1">
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.8">
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.8">
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1">
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="B41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="B42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="B43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="B44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="B45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="B46" s="6"/>
       <c r="E46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:F9"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A30:F32"/>
     <mergeCell ref="A36:F40"/>
@@ -2267,11 +2462,6 @@
     <mergeCell ref="A14:F18"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A22:F27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:F9"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.38825757575757575" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2284,445 +2474,696 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="90" zoomScaleNormal="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScale="90" zoomScaleNormal="115" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="20" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="8" customWidth="1"/>
     <col min="5" max="6" width="12" style="8" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="8"/>
+    <col min="7" max="7" width="14.44140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+    <row r="1" spans="1:14" ht="18.45" customHeight="1">
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+    </row>
+    <row r="2" spans="1:14" ht="15">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.6" thickBot="1">
       <c r="B3" s="9"/>
       <c r="C3" s="7"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+    <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1">
+      <c r="A4" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="42" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
+      <c r="H4" s="81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
+      <c r="A5" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
+      <c r="A6" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.45" customHeight="1">
+      <c r="A10" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="77"/>
+      <c r="C10" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.45" customHeight="1">
+      <c r="A11" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="77"/>
+      <c r="C11" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="29.25" customHeight="1">
+      <c r="A12" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1">
+      <c r="A14" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="78"/>
+      <c r="C14" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.45" customHeight="1">
+      <c r="A15" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="77"/>
+      <c r="C15" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="28.8">
+      <c r="A16" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="77"/>
+      <c r="C16" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.45" customHeight="1">
+      <c r="A17" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.45" customHeight="1">
+      <c r="A18" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="82"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.45" customHeight="1">
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="23"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="23"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="82"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.45" customHeight="1">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="E21" s="9"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.45" customHeight="1">
+      <c r="A22" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="9"/>
-      <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="E25" s="9"/>
-      <c r="H25" s="28"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="33"/>
-      <c r="H26" s="28"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H27" s="28"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="68" t="s">
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.45" customHeight="1" thickBot="1">
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.45" customHeight="1" thickBot="1">
+      <c r="A24" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="64" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="64" t="s">
+      <c r="D24" s="70"/>
+      <c r="E24" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="H32" s="28"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="H34" s="28"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="H35" s="28"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="H36" s="28"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="H38" s="28"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="H39" s="28"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="H40" s="28"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
+      <c r="F24" s="70"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1">
+      <c r="A25" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71">
+        <v>0</v>
+      </c>
+      <c r="F25" s="71"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.45" customHeight="1">
+      <c r="A26" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59">
+        <v>1</v>
+      </c>
+      <c r="F26" s="59"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.45" customHeight="1">
+      <c r="A27" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59">
+        <v>3</v>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.45" customHeight="1">
+      <c r="A28" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59">
+        <v>4</v>
+      </c>
+      <c r="F28" s="59"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.45" customHeight="1">
+      <c r="A29" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59">
+        <v>8</v>
+      </c>
+      <c r="F29" s="59"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.45" customHeight="1">
+      <c r="A30" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59">
+        <v>9</v>
+      </c>
+      <c r="F30" s="59"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.45" customHeight="1">
+      <c r="A31" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59">
+        <v>14</v>
+      </c>
+      <c r="F31" s="59"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59">
+        <v>15</v>
+      </c>
+      <c r="F32" s="59"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59">
+        <v>16</v>
+      </c>
+      <c r="F33" s="59"/>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59">
+        <v>17</v>
+      </c>
+      <c r="F34" s="59"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59">
+        <v>18</v>
+      </c>
+      <c r="F35" s="59"/>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59">
+        <v>19</v>
+      </c>
+      <c r="F36" s="59"/>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59">
+        <v>20</v>
+      </c>
+      <c r="F37" s="59"/>
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59">
+        <v>21</v>
+      </c>
+      <c r="F38" s="59"/>
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1">
+      <c r="A39" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59">
+        <v>22</v>
+      </c>
+      <c r="F39" s="59"/>
+      <c r="H39" s="26"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1">
+      <c r="A40" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59">
+        <v>23</v>
+      </c>
+      <c r="F40" s="59"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1">
+      <c r="A41" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60" t="s">
+        <v>86</v>
+      </c>
       <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
+      <c r="E41" s="60" t="s">
+        <v>87</v>
+      </c>
       <c r="F41" s="61"/>
-      <c r="H41" s="28"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="H42" s="28"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" ht="15">
+      <c r="B42" s="9"/>
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" ht="15">
       <c r="B43" s="9"/>
-      <c r="H43" s="28"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1"/>
+    <row r="45" spans="1:8">
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+    </row>
+    <row r="46" spans="1:8" ht="15">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:8" ht="15">
       <c r="B47" s="9"/>
-      <c r="C47" s="12"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" ht="15">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="75">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A15:B15"/>
@@ -2736,55 +3177,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2798,7 +3190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0652708-2438-41BF-88DD-9C68D9162BDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -2808,14 +3200,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -2825,165 +3217,165 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:8" ht="31.8" thickBot="1">
+      <c r="A6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="38" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="35"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="35"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="35"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="35"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="35"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="35"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="35"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="36"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="35"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="35"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="35"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -2993,7 +3385,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -3003,7 +3395,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -3013,7 +3405,7 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -3023,7 +3415,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -3033,7 +3425,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -3043,7 +3435,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -3053,7 +3445,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -3063,7 +3455,7 @@
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -3073,7 +3465,7 @@
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -3083,7 +3475,7 @@
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -3093,7 +3485,7 @@
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -3103,7 +3495,7 @@
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -3113,7 +3505,7 @@
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -3123,7 +3515,7 @@
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -3133,7 +3525,7 @@
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -3143,7 +3535,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -3153,7 +3545,7 @@
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -3163,7 +3555,7 @@
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -3173,7 +3565,7 @@
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -3183,7 +3575,7 @@
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -3193,7 +3585,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -3203,7 +3595,7 @@
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -3213,7 +3605,7 @@
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -3223,7 +3615,7 @@
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -3233,7 +3625,7 @@
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -3243,7 +3635,7 @@
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -3253,7 +3645,7 @@
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -3263,7 +3655,7 @@
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -3273,7 +3665,7 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -3312,7 +3704,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E18" xr:uid="{D02E1EED-F408-4D0B-9B3C-46D277EFCC5E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E18">
       <formula1>"oui,non,je sais pas,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3327,7 +3719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F511F42D-FD86-482B-8CC2-60C856D395E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -3337,436 +3729,482 @@
       <selection activeCell="F41" sqref="F41:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21">
       <c r="A1" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="80"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="80"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="80"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="80"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="80"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="80"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.65" customHeight="1">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="72"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="72"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="72"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="72"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="72"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="F37:G37"/>
@@ -3783,58 +4221,12 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:G36"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
